--- a/Excel_Practice_Student (1).xlsx
+++ b/Excel_Practice_Student (1).xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\CODE\savvyDAP\dap-curriculum\Section02\activities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dakotalitton/Code/SavvyCoders/Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{976E9876-C4A8-4131-97B9-CBFB2D09D474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297CD625-F720-C74F-879D-0D98F1D76FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17172" yWindow="-108" windowWidth="17496" windowHeight="10416" firstSheet="2" activeTab="1" xr2:uid="{8D4C5268-695D-4616-9E91-53744754ABC6}"/>
+    <workbookView xWindow="9020" yWindow="2140" windowWidth="27020" windowHeight="17480" activeTab="2" xr2:uid="{8D4C5268-695D-4616-9E91-53744754ABC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Payroll" sheetId="1" r:id="rId1"/>
-    <sheet name="Loans" sheetId="2" r:id="rId2"/>
-    <sheet name="Functions" sheetId="3" r:id="rId3"/>
+    <sheet name="Roster" sheetId="4" r:id="rId2"/>
+    <sheet name="Credit Card" sheetId="5" r:id="rId3"/>
+    <sheet name="Loans" sheetId="2" r:id="rId4"/>
+    <sheet name="Functions" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">'Credit Card'!$A$3:$A$7</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Credit Card'!$B$2</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'Credit Card'!$B$3:$B$7</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'Credit Card'!$G$2</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">'Credit Card'!$G$3:$G$7</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="230">
   <si>
     <t>Employee Payroll</t>
   </si>
@@ -635,16 +644,111 @@
   </si>
   <si>
     <t>EITHER Fire Type OR less than 60 HP</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Homeroom</t>
+  </si>
+  <si>
+    <t>Sarah Ashworth</t>
+  </si>
+  <si>
+    <t>Amanda Johnson</t>
+  </si>
+  <si>
+    <t>David Cline</t>
+  </si>
+  <si>
+    <t>Matthew Roberts</t>
+  </si>
+  <si>
+    <t>Sierra Chadwick</t>
+  </si>
+  <si>
+    <t>Ronnie Dangerfield</t>
+  </si>
+  <si>
+    <t>Thomas Cruise</t>
+  </si>
+  <si>
+    <t>Bradley Swickerwrath</t>
+  </si>
+  <si>
+    <t>Gracie Smith</t>
+  </si>
+  <si>
+    <t>John McDonald</t>
+  </si>
+  <si>
+    <t>Raymond James</t>
+  </si>
+  <si>
+    <t>Social Studies</t>
+  </si>
+  <si>
+    <t>Semester Grades</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Credit Card Debt</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Total Loan Amount</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>Capital One</t>
+  </si>
+  <si>
+    <t>Citi Card</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Wal-Mart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,6 +775,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -708,7 +826,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -824,11 +942,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -874,9 +1099,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -887,17 +1109,39 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -914,6 +1158,725 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Credit Card'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly Payment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Credit Card'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Discover</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capital One</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citi Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Target</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wal-Mart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Credit Card'!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>806.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>412.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B586-CF43-80E4-26F87DCB851B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="918361936"/>
+        <c:axId val="928046080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="918361936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928046080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="928046080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="918361936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CC Balances and Monthly Payment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Credit Card'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Credit Card'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Discover</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capital One</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citi Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Target</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wal-Mart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Credit Card'!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>780</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B691-3145-9B41-B8D8CAEF4297}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Credit Card'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly Payment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Credit Card'!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Discover</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capital One</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citi Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Target</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wal-Mart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Credit Card'!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>806.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>412.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B691-3145-9B41-B8D8CAEF4297}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="928858496"/>
+        <c:axId val="928129920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="928858496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928129920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="928129920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="928858496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1303,6 +2266,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1845,7 +2888,1090 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61C18DA-CAD0-3AC8-E125-7C9F2C6C4498}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B489C8B1-89ED-5BE7-79EF-1A7F8C516CF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2185,23 +4311,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D2CA6A-7C7B-42A2-BC97-252980B3146C}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2212,46 +4338,46 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="23">
         <v>10</v>
       </c>
       <c r="D4">
         <v>40</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="23">
         <f>C4*D4</f>
         <v>400</v>
       </c>
@@ -2259,432 +4385,432 @@
         <f>IF(D4&gt;40,D4-40,0)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="26">
-        <f>0.5*F4*C4</f>
+      <c r="G4" s="23">
+        <f t="shared" ref="G4:G14" si="0">0.5*F4*C4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="26">
-        <f>SUM(E4,G4)</f>
+      <c r="H4" s="23">
+        <f t="shared" ref="H4:H14" si="1">SUM(E4,G4)</f>
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="23">
         <v>15</v>
       </c>
       <c r="D5">
         <v>35</v>
       </c>
-      <c r="E5" s="26">
-        <f t="shared" ref="E5:E14" si="0">C5*D5</f>
+      <c r="E5" s="23">
+        <f t="shared" ref="E5:E14" si="2">C5*D5</f>
         <v>525</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F14" si="1">IF(D5&gt;40,D5-40,0)</f>
+        <f t="shared" ref="F5:F14" si="3">IF(D5&gt;40,D5-40,0)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="26">
-        <f>0.5*F5*C5</f>
+      <c r="G5" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="26">
-        <f>SUM(E5,G5)</f>
+      <c r="H5" s="23">
+        <f t="shared" si="1"/>
         <v>525</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="23">
         <v>3.5</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="23">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="23">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="23">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="26">
-        <f>0.5*F6*C6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="26">
-        <f>SUM(E6,G6)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="23">
         <v>20.100000000000001</v>
       </c>
       <c r="D7">
         <v>50</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="23">
+        <f t="shared" si="2"/>
+        <v>1005.0000000000001</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G7" s="23">
         <f t="shared" si="0"/>
-        <v>1005.0000000000001</v>
-      </c>
-      <c r="F7">
+        <v>100.5</v>
+      </c>
+      <c r="H7" s="23">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G7" s="26">
-        <f>0.5*F7*C7</f>
-        <v>100.5</v>
-      </c>
-      <c r="H7" s="26">
-        <f>SUM(E7,G7)</f>
         <v>1105.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="23">
         <v>5.75</v>
       </c>
       <c r="D8">
         <v>55</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="23">
+        <f t="shared" si="2"/>
+        <v>316.25</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="G8" s="23">
         <f t="shared" si="0"/>
-        <v>316.25</v>
-      </c>
-      <c r="F8">
+        <v>43.125</v>
+      </c>
+      <c r="H8" s="23">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="G8" s="26">
-        <f>0.5*F8*C8</f>
-        <v>43.125</v>
-      </c>
-      <c r="H8" s="26">
-        <f>SUM(E8,G8)</f>
         <v>359.375</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="23">
         <v>12</v>
       </c>
       <c r="D9">
         <v>45</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="23">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G9" s="23">
         <f t="shared" si="0"/>
-        <v>540</v>
-      </c>
-      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="H9" s="23">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G9" s="26">
-        <f>0.5*F9*C9</f>
-        <v>30</v>
-      </c>
-      <c r="H9" s="26">
-        <f>SUM(E9,G9)</f>
         <v>570</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="23">
         <v>6.55</v>
       </c>
       <c r="D10">
         <v>25</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="23">
+        <f t="shared" si="2"/>
+        <v>163.75</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="23">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="23">
+        <f t="shared" si="1"/>
         <v>163.75</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="26">
-        <f>0.5*F10*C10</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="26">
-        <f>SUM(E10,G10)</f>
-        <v>163.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="23">
         <v>30</v>
       </c>
       <c r="D11">
         <v>29</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="23">
+        <f t="shared" si="2"/>
+        <v>870</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="23">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="23">
+        <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="26">
-        <f>0.5*F11*C11</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="26">
-        <f>SUM(E11,G11)</f>
-        <v>870</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="23">
         <v>75</v>
       </c>
       <c r="D12">
         <v>32</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="23">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="26">
-        <f>0.5*F12*C12</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="26">
-        <f>SUM(E12,G12)</f>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="23">
         <v>40</v>
       </c>
       <c r="D13">
         <v>44</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="23">
+        <f t="shared" si="2"/>
+        <v>1760</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G13" s="23">
         <f t="shared" si="0"/>
-        <v>1760</v>
-      </c>
-      <c r="F13">
+        <v>80</v>
+      </c>
+      <c r="H13" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G13" s="26">
-        <f>0.5*F13*C13</f>
-        <v>80</v>
-      </c>
-      <c r="H13" s="26">
-        <f>SUM(E13,G13)</f>
         <v>1840</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="23">
         <v>25</v>
       </c>
       <c r="D14">
         <v>22</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="23">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="23">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="26">
-        <f>0.5*F14*C14</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="26">
-        <f>SUM(E14,G14)</f>
-        <v>550</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15">
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="1:8" ht="15">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="23">
         <f>MAX(C4:C14)</f>
         <v>75</v>
       </c>
-      <c r="D16" s="25">
-        <f t="shared" ref="D16:H16" si="2">MAX(D4:D14)</f>
+      <c r="D16" s="22">
+        <f t="shared" ref="D16:H16" si="4">MAX(D4:D14)</f>
         <v>55</v>
       </c>
-      <c r="E16" s="26">
-        <f t="shared" si="2"/>
+      <c r="E16" s="23">
+        <f t="shared" si="4"/>
         <v>2400</v>
       </c>
-      <c r="F16" s="24">
-        <f t="shared" si="2"/>
+      <c r="F16" s="21">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="G16" s="26">
-        <f t="shared" si="2"/>
+      <c r="G16" s="23">
+        <f t="shared" si="4"/>
         <v>100.5</v>
       </c>
-      <c r="H16" s="26">
-        <f t="shared" si="2"/>
+      <c r="H16" s="23">
+        <f t="shared" si="4"/>
         <v>2400</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="23">
         <f>MIN(C4:C14)</f>
         <v>3.5</v>
       </c>
-      <c r="D17" s="25">
-        <f t="shared" ref="D17:H17" si="3">MIN(D4:D14)</f>
+      <c r="D17" s="22">
+        <f t="shared" ref="D17:H17" si="5">MIN(D4:D14)</f>
         <v>22</v>
       </c>
-      <c r="E17" s="26">
-        <f t="shared" si="3"/>
+      <c r="E17" s="23">
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
-      <c r="F17" s="24">
-        <f t="shared" si="3"/>
+      <c r="F17" s="21">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G17" s="26">
-        <f t="shared" si="3"/>
+      <c r="G17" s="23">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H17" s="26">
-        <f t="shared" si="3"/>
+      <c r="H17" s="23">
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="23">
         <f>AVERAGE(C4:C14)</f>
         <v>22.081818181818178</v>
       </c>
-      <c r="D18" s="25">
-        <f t="shared" ref="D18:H18" si="4">AVERAGE(D4:D14)</f>
+      <c r="D18" s="22">
+        <f t="shared" ref="D18:H18" si="6">AVERAGE(D4:D14)</f>
         <v>37</v>
       </c>
-      <c r="E18" s="26">
-        <f t="shared" si="4"/>
+      <c r="E18" s="23">
+        <f t="shared" si="6"/>
         <v>785</v>
       </c>
-      <c r="F18" s="24">
-        <f t="shared" si="4"/>
+      <c r="F18" s="21">
+        <f t="shared" si="6"/>
         <v>3.0909090909090908</v>
       </c>
-      <c r="G18" s="26">
-        <f t="shared" si="4"/>
+      <c r="G18" s="23">
+        <f t="shared" si="6"/>
         <v>23.056818181818183</v>
       </c>
-      <c r="H18" s="26">
-        <f t="shared" si="4"/>
+      <c r="H18" s="23">
+        <f t="shared" si="6"/>
         <v>808.05681818181813</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="23">
         <f>SUM(C4:C14)</f>
         <v>242.89999999999998</v>
       </c>
-      <c r="D19" s="25">
-        <f t="shared" ref="D19:H19" si="5">SUM(D4:D14)</f>
+      <c r="D19" s="22">
+        <f t="shared" ref="D19:H19" si="7">SUM(D4:D14)</f>
         <v>407</v>
       </c>
-      <c r="E19" s="26">
-        <f t="shared" si="5"/>
+      <c r="E19" s="23">
+        <f t="shared" si="7"/>
         <v>8635</v>
       </c>
-      <c r="F19" s="24">
-        <f t="shared" si="5"/>
+      <c r="F19" s="21">
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="G19" s="26">
-        <f t="shared" si="5"/>
+      <c r="G19" s="23">
+        <f t="shared" si="7"/>
         <v>253.625</v>
       </c>
-      <c r="H19" s="26">
-        <f t="shared" si="5"/>
+      <c r="H19" s="23">
+        <f t="shared" si="7"/>
         <v>8888.625</v>
       </c>
     </row>
@@ -2695,29 +4821,283 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5AA2E7-F047-42D2-AD6F-D303D1F75E1A}">
-  <dimension ref="A2:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42BA3C5-02D3-094C-B94C-A1AEE6752579}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="26">
+        <v>12</v>
+      </c>
+      <c r="C3" s="26">
+        <v>85</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="26">
+        <v>11</v>
+      </c>
+      <c r="C4" s="26">
+        <v>72</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="26">
+        <v>13</v>
+      </c>
+      <c r="C5" s="26">
+        <v>60</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="26">
+        <v>12</v>
+      </c>
+      <c r="C6" s="26">
+        <v>95</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="26">
+        <v>14</v>
+      </c>
+      <c r="C7" s="26">
+        <v>88</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="26">
+        <v>12</v>
+      </c>
+      <c r="C8" s="26">
+        <v>99</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="26">
+        <v>11</v>
+      </c>
+      <c r="C9" s="26">
+        <v>75</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="26">
+        <v>13</v>
+      </c>
+      <c r="C10" s="26">
+        <v>100</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="26">
+        <v>13</v>
+      </c>
+      <c r="C11" s="26">
+        <v>75</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="26">
+        <v>15</v>
+      </c>
+      <c r="C12" s="26">
+        <v>85</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="37">
+        <v>11</v>
+      </c>
+      <c r="C13" s="37">
+        <v>85</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="27">
+        <f>MIN(C3:C13)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="27">
+        <f>MAX(C3:C13)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="27">
+        <f>AVERAGE(C3:C13)</f>
+        <v>83.545454545454547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="27">
+        <f>MODE(C3:C13)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="27">
+        <f>MEDIAN(C3:C13)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="27">
+        <f>COUNTA(A3:A13)</f>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F08533-8AC0-4C4D-9B2B-052174112F54}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
@@ -2729,114 +5109,140 @@
         <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="26">
-        <v>34493</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="40">
+        <v>2000</v>
       </c>
       <c r="C3" s="2">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3" s="26">
-        <f>B3*C3</f>
-        <v>1724.65</v>
-      </c>
-      <c r="F3" s="26">
-        <f>B3+E3</f>
-        <v>36217.65</v>
-      </c>
-      <c r="G3" s="26">
+        <v>3</v>
+      </c>
+      <c r="E3" s="40">
+        <f>C3*B3</f>
+        <v>420</v>
+      </c>
+      <c r="F3" s="40">
+        <f>E3+B3</f>
+        <v>2420</v>
+      </c>
+      <c r="G3" s="40">
         <f>F3/D3</f>
-        <v>3018.1375000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="26">
-        <v>58044</v>
+        <v>806.66666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="40">
+        <v>450</v>
       </c>
       <c r="C4" s="2">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4" s="26">
-        <f t="shared" ref="E4:E6" si="0">B4*C4</f>
-        <v>3482.64</v>
-      </c>
-      <c r="F4" s="26">
-        <f t="shared" ref="F4:F6" si="1">B4+E4</f>
-        <v>61526.64</v>
-      </c>
-      <c r="G4" s="26">
-        <f t="shared" ref="G4:G6" si="2">F4/D4</f>
-        <v>5127.22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="26">
-        <v>58089</v>
+        <v>3</v>
+      </c>
+      <c r="E4" s="40">
+        <f t="shared" ref="E4:E7" si="0">C4*B4</f>
+        <v>112.5</v>
+      </c>
+      <c r="F4" s="40">
+        <f t="shared" ref="F4:F7" si="1">E4+B4</f>
+        <v>562.5</v>
+      </c>
+      <c r="G4" s="40">
+        <f t="shared" ref="G4:G7" si="2">F4/D4</f>
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="40">
+        <v>975</v>
       </c>
       <c r="C5" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.27</v>
       </c>
       <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5" s="26">
+        <v>3</v>
+      </c>
+      <c r="E5" s="40">
         <f t="shared" si="0"/>
-        <v>4066.2300000000005</v>
-      </c>
-      <c r="F5" s="26">
+        <v>263.25</v>
+      </c>
+      <c r="F5" s="40">
         <f t="shared" si="1"/>
-        <v>62155.23</v>
-      </c>
-      <c r="G5" s="26">
+        <v>1238.25</v>
+      </c>
+      <c r="G5" s="40">
         <f t="shared" si="2"/>
-        <v>5179.6025</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="26">
-        <v>50636</v>
+        <v>412.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="40">
+        <v>1500</v>
       </c>
       <c r="C6" s="2">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6" s="26">
+        <v>3</v>
+      </c>
+      <c r="E6" s="40">
         <f t="shared" si="0"/>
-        <v>4050.88</v>
-      </c>
-      <c r="F6" s="26">
+        <v>225</v>
+      </c>
+      <c r="F6" s="40">
         <f t="shared" si="1"/>
-        <v>54686.879999999997</v>
-      </c>
-      <c r="G6" s="26">
+        <v>1725</v>
+      </c>
+      <c r="G6" s="40">
         <f t="shared" si="2"/>
-        <v>4557.24</v>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="40">
+        <v>780</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="40">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="F7" s="40">
+        <f t="shared" si="1"/>
+        <v>975</v>
+      </c>
+      <c r="G7" s="40">
+        <f t="shared" si="2"/>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2845,47 +5251,198 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5AA2E7-F047-42D2-AD6F-D303D1F75E1A}">
+  <dimension ref="A2:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="23">
+        <v>34493</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3" s="23">
+        <f>B3*C3</f>
+        <v>1724.65</v>
+      </c>
+      <c r="F3" s="23">
+        <f>B3+E3</f>
+        <v>36217.65</v>
+      </c>
+      <c r="G3" s="23">
+        <f>F3/D3</f>
+        <v>3018.1375000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="23">
+        <v>58044</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4" s="23">
+        <f t="shared" ref="E4:E6" si="0">B4*C4</f>
+        <v>3482.64</v>
+      </c>
+      <c r="F4" s="23">
+        <f t="shared" ref="F4:F6" si="1">B4+E4</f>
+        <v>61526.64</v>
+      </c>
+      <c r="G4" s="23">
+        <f t="shared" ref="G4:G6" si="2">F4/D4</f>
+        <v>5127.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="23">
+        <v>58089</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5" s="23">
+        <f t="shared" si="0"/>
+        <v>4066.2300000000005</v>
+      </c>
+      <c r="F5" s="23">
+        <f t="shared" si="1"/>
+        <v>62155.23</v>
+      </c>
+      <c r="G5" s="23">
+        <f t="shared" si="2"/>
+        <v>5179.6025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="23">
+        <v>50636</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6" s="23">
+        <f t="shared" si="0"/>
+        <v>4050.88</v>
+      </c>
+      <c r="F6" s="23">
+        <f t="shared" si="1"/>
+        <v>54686.879999999997</v>
+      </c>
+      <c r="G6" s="23">
+        <f t="shared" si="2"/>
+        <v>4557.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB70C1B-75BF-4BA5-9170-95D94596A40F}">
   <dimension ref="A1:N240"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
@@ -2911,7 +5468,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
@@ -2921,7 +5478,10 @@
       <c r="C3" s="4">
         <v>45</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="b">
+        <f>AND(B3="Fire",C3&gt;70)</f>
+        <v>0</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>53</v>
       </c>
@@ -2933,7 +5493,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>55</v>
       </c>
@@ -2943,7 +5503,10 @@
       <c r="C4" s="4">
         <v>60</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="b">
+        <f t="shared" ref="D4:D11" si="0">AND(B4="Fire",C4&gt;70)</f>
+        <v>0</v>
+      </c>
       <c r="F4" s="4" t="s">
         <v>55</v>
       </c>
@@ -2955,7 +5518,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>56</v>
       </c>
@@ -2965,7 +5528,10 @@
       <c r="C5" s="4">
         <v>80</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F5" s="4" t="s">
         <v>56</v>
       </c>
@@ -2977,7 +5543,7 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
@@ -2987,7 +5553,10 @@
       <c r="C6" s="4">
         <v>65</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F6" s="4" t="s">
         <v>57</v>
       </c>
@@ -2999,7 +5568,7 @@
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -3009,7 +5578,10 @@
       <c r="C7" s="4">
         <v>80</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F7" s="4" t="s">
         <v>59</v>
       </c>
@@ -3021,7 +5593,7 @@
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -3031,7 +5603,10 @@
       <c r="C8" s="4">
         <v>100</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="F8" s="4" t="s">
         <v>60</v>
       </c>
@@ -3043,7 +5618,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -3053,7 +5628,10 @@
       <c r="C9" s="4">
         <v>43</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F9" s="4" t="s">
         <v>61</v>
       </c>
@@ -3065,7 +5643,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
@@ -3075,7 +5653,10 @@
       <c r="C10" s="4">
         <v>58</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F10" s="4" t="s">
         <v>63</v>
       </c>
@@ -3087,7 +5668,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
@@ -3097,7 +5678,10 @@
       <c r="C11" s="4">
         <v>78</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F11" s="4" t="s">
         <v>64</v>
       </c>
@@ -3109,21 +5693,21 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>49</v>
       </c>
@@ -3135,7 +5719,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>53</v>
       </c>
@@ -3147,7 +5731,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>55</v>
       </c>
@@ -3164,7 +5748,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>56</v>
       </c>
@@ -3177,9 +5761,12 @@
       <c r="D17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="E17" s="4">
+        <f>AVERAGEIF($B$15:$B$23,D17,$C$15:$C$23)</f>
+        <v>61.666666666666664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
@@ -3192,9 +5779,12 @@
       <c r="D18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="E18" s="4">
+        <f t="shared" ref="E18:E19" si="1">AVERAGEIF($B$15:$B$23,D18,$C$15:$C$23)</f>
+        <v>81.666666666666671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>59</v>
       </c>
@@ -3207,9 +5797,12 @@
       <c r="D19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="E19" s="4">
+        <f t="shared" si="1"/>
+        <v>59.666666666666664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>60</v>
       </c>
@@ -3221,7 +5814,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>61</v>
       </c>
@@ -3233,7 +5826,7 @@
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>63</v>
       </c>
@@ -3245,7 +5838,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>64</v>
       </c>
@@ -3257,20 +5850,20 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>49</v>
       </c>
@@ -3284,7 +5877,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>72</v>
       </c>
@@ -3308,7 +5901,7 @@
       </c>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>75</v>
       </c>
@@ -3327,9 +5920,13 @@
       <c r="G28" s="13">
         <v>1</v>
       </c>
+      <c r="H28" s="3">
+        <f>AVERAGEIFS($C$27:$C$38,$D$27:$D$38,G28,$B$27:$B$38,F28)</f>
+        <v>65</v>
+      </c>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>76</v>
       </c>
@@ -3348,9 +5945,13 @@
       <c r="G29" s="13">
         <v>1</v>
       </c>
+      <c r="H29" s="3">
+        <f t="shared" ref="H29:H31" si="2">AVERAGEIFS($C$27:$C$38,$D$27:$D$38,G29,$B$27:$B$38,F29)</f>
+        <v>59.666666666666664</v>
+      </c>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>77</v>
       </c>
@@ -3369,9 +5970,13 @@
       <c r="G30" s="13">
         <v>2</v>
       </c>
+      <c r="H30" s="3">
+        <f t="shared" si="2"/>
+        <v>81.666666666666671</v>
+      </c>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>78</v>
       </c>
@@ -3390,10 +5995,13 @@
       <c r="G31" s="16">
         <v>2</v>
       </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="H31" s="3">
+        <f t="shared" si="2"/>
+        <v>59.666666666666664</v>
+      </c>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>79</v>
       </c>
@@ -3407,7 +6015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>80</v>
       </c>
@@ -3421,7 +6029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>81</v>
       </c>
@@ -3435,7 +6043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>82</v>
       </c>
@@ -3449,7 +6057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>83</v>
       </c>
@@ -3463,7 +6071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>84</v>
       </c>
@@ -3477,7 +6085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>85</v>
       </c>
@@ -3491,26 +6099,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="22" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="F40" s="22" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="F40" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
@@ -3536,7 +6144,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>90</v>
       </c>
@@ -3558,7 +6166,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>92</v>
       </c>
@@ -3584,7 +6192,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>93</v>
       </c>
@@ -3610,7 +6218,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>95</v>
       </c>
@@ -3636,7 +6244,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>96</v>
       </c>
@@ -3662,7 +6270,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>99</v>
       </c>
@@ -3688,7 +6296,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>101</v>
       </c>
@@ -3714,7 +6322,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>102</v>
       </c>
@@ -3740,7 +6348,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>105</v>
       </c>
@@ -3762,7 +6370,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>107</v>
       </c>
@@ -3788,7 +6396,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>110</v>
       </c>
@@ -3810,7 +6418,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>111</v>
       </c>
@@ -3836,7 +6444,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>113</v>
       </c>
@@ -3862,7 +6470,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>114</v>
       </c>
@@ -3884,7 +6492,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>115</v>
       </c>
@@ -3910,7 +6518,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>116</v>
       </c>
@@ -3932,7 +6540,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>78</v>
       </c>
@@ -3954,7 +6562,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>117</v>
       </c>
@@ -3976,7 +6584,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>118</v>
       </c>
@@ -4002,7 +6610,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>120</v>
       </c>
@@ -4024,21 +6632,31 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="22" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D62" s="3">
+        <f>COUNT(D42:D61)</f>
+        <v>20</v>
+      </c>
+      <c r="F62" s="3">
+        <f>COUNTA(F42:F61)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="F64" s="23" t="s">
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="F64" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>49</v>
       </c>
@@ -4064,7 +6682,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>90</v>
       </c>
@@ -4086,7 +6704,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>92</v>
       </c>
@@ -4112,7 +6730,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>93</v>
       </c>
@@ -4138,7 +6756,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>95</v>
       </c>
@@ -4163,12 +6781,12 @@
       <c r="I69" s="4">
         <v>335</v>
       </c>
-      <c r="K69" s="19" t="s">
+      <c r="K69" s="18" t="s">
         <v>54</v>
       </c>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>96</v>
       </c>
@@ -4193,12 +6811,12 @@
       <c r="I70" s="4">
         <v>465</v>
       </c>
-      <c r="K70" s="19" t="s">
+      <c r="K70" s="18" t="s">
         <v>62</v>
       </c>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>99</v>
       </c>
@@ -4223,12 +6841,12 @@
       <c r="I71" s="4">
         <v>475</v>
       </c>
-      <c r="K71" s="19" t="s">
+      <c r="K71" s="18" t="s">
         <v>97</v>
       </c>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>101</v>
       </c>
@@ -4253,12 +6871,12 @@
       <c r="I72" s="4">
         <v>525</v>
       </c>
-      <c r="K72" s="19" t="s">
+      <c r="K72" s="18" t="s">
         <v>91</v>
       </c>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>102</v>
       </c>
@@ -4283,12 +6901,12 @@
       <c r="I73" s="4">
         <v>385</v>
       </c>
-      <c r="K73" s="19" t="s">
+      <c r="K73" s="18" t="s">
         <v>103</v>
       </c>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>105</v>
       </c>
@@ -4309,12 +6927,12 @@
       <c r="I74" s="4">
         <v>420</v>
       </c>
-      <c r="K74" s="19" t="s">
+      <c r="K74" s="18" t="s">
         <v>106</v>
       </c>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>107</v>
       </c>
@@ -4339,12 +6957,12 @@
       <c r="I75" s="4">
         <v>349</v>
       </c>
-      <c r="K75" s="19" t="s">
+      <c r="K75" s="18" t="s">
         <v>108</v>
       </c>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>110</v>
       </c>
@@ -4365,12 +6983,12 @@
       <c r="I76" s="4">
         <v>253</v>
       </c>
-      <c r="K76" s="19" t="s">
+      <c r="K76" s="18" t="s">
         <v>112</v>
       </c>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>111</v>
       </c>
@@ -4395,12 +7013,12 @@
       <c r="I77" s="4">
         <v>395</v>
       </c>
-      <c r="K77" s="19" t="s">
+      <c r="K77" s="18" t="s">
         <v>94</v>
       </c>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>113</v>
       </c>
@@ -4425,12 +7043,12 @@
       <c r="I78" s="4">
         <v>310</v>
       </c>
-      <c r="K78" s="19" t="s">
+      <c r="K78" s="18" t="s">
         <v>58</v>
       </c>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>114</v>
       </c>
@@ -4451,12 +7069,12 @@
       <c r="I79" s="4">
         <v>475</v>
       </c>
-      <c r="K79" s="19" t="s">
+      <c r="K79" s="18" t="s">
         <v>119</v>
       </c>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>115</v>
       </c>
@@ -4482,7 +7100,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>116</v>
       </c>
@@ -4504,7 +7122,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>78</v>
       </c>
@@ -4526,7 +7144,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>117</v>
       </c>
@@ -4548,7 +7166,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>118</v>
       </c>
@@ -4574,7 +7192,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>120</v>
       </c>
@@ -4596,24 +7214,28 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C86" s="3">
+        <f>COUNTBLANK(C66:C85)</f>
+        <v>8</v>
+      </c>
       <c r="F86" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="22" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>49</v>
       </c>
@@ -4627,7 +7249,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>72</v>
       </c>
@@ -4641,7 +7263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>75</v>
       </c>
@@ -4664,7 +7286,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>76</v>
       </c>
@@ -4685,7 +7307,7 @@
       </c>
       <c r="H92" s="14"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>77</v>
       </c>
@@ -4706,7 +7328,7 @@
       </c>
       <c r="H93" s="14"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>78</v>
       </c>
@@ -4727,7 +7349,7 @@
       </c>
       <c r="H94" s="14"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>79</v>
       </c>
@@ -4746,9 +7368,9 @@
       <c r="G95" s="16">
         <v>2</v>
       </c>
-      <c r="H95" s="18"/>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="H95" s="17"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>80</v>
       </c>
@@ -4762,7 +7384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>81</v>
       </c>
@@ -4776,7 +7398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>82</v>
       </c>
@@ -4790,7 +7412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>83</v>
       </c>
@@ -4804,7 +7426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>84</v>
       </c>
@@ -4818,7 +7440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>85</v>
       </c>
@@ -4832,21 +7454,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="22" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="F103" s="22" t="s">
+      <c r="B103" s="24"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="F103" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22"/>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>127</v>
       </c>
@@ -4872,7 +7494,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>130</v>
       </c>
@@ -4892,7 +7514,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>131</v>
       </c>
@@ -4912,7 +7534,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>132</v>
       </c>
@@ -4932,7 +7554,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>133</v>
       </c>
@@ -4952,7 +7574,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>134</v>
       </c>
@@ -4972,7 +7594,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>135</v>
       </c>
@@ -4992,7 +7614,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>136</v>
       </c>
@@ -5012,7 +7634,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>137</v>
       </c>
@@ -5032,7 +7654,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>138</v>
       </c>
@@ -5052,7 +7674,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>139</v>
       </c>
@@ -5060,24 +7682,24 @@
         <v>139</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
-      <c r="A115" s="22" t="s">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B115" s="22"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
-      <c r="F115" s="22" t="s">
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="F115" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G115" s="22"/>
-      <c r="H115" s="22"/>
-      <c r="I115" s="22"/>
-      <c r="J115" s="22"/>
-      <c r="K115" s="22"/>
-      <c r="L115" s="22"/>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="24"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>49</v>
       </c>
@@ -5094,7 +7716,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>72</v>
       </c>
@@ -5123,7 +7745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>75</v>
       </c>
@@ -5137,7 +7759,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>76</v>
       </c>
@@ -5169,7 +7791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>77</v>
       </c>
@@ -5180,7 +7802,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>78</v>
       </c>
@@ -5191,7 +7813,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>79</v>
       </c>
@@ -5202,7 +7824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>143</v>
       </c>
@@ -5213,7 +7835,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>144</v>
       </c>
@@ -5224,7 +7846,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>145</v>
       </c>
@@ -5235,21 +7857,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
-      <c r="A127" s="22" t="s">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A127" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="B127" s="22"/>
-      <c r="C127" s="22"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="22"/>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="B127" s="24"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>147</v>
       </c>
@@ -5266,7 +7888,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>152</v>
       </c>
@@ -5283,7 +7905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>153</v>
       </c>
@@ -5300,7 +7922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>154</v>
       </c>
@@ -5317,7 +7939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>155</v>
       </c>
@@ -5334,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>156</v>
       </c>
@@ -5351,7 +7973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>157</v>
       </c>
@@ -5368,31 +7990,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="22" t="s">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="B138" s="22"/>
-      <c r="C138" s="22"/>
-      <c r="D138" s="22"/>
-      <c r="F138" s="22" t="s">
+      <c r="B138" s="24"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
+      <c r="F138" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="G138" s="22"/>
-      <c r="H138" s="22"/>
-      <c r="I138" s="22"/>
-    </row>
-    <row r="139" spans="1:9">
+      <c r="G138" s="24"/>
+      <c r="H138" s="24"/>
+      <c r="I138" s="24"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>49</v>
       </c>
@@ -5418,7 +8040,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>72</v>
       </c>
@@ -5438,7 +8060,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>75</v>
       </c>
@@ -5458,7 +8080,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>76</v>
       </c>
@@ -5478,7 +8100,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>77</v>
       </c>
@@ -5498,7 +8120,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>78</v>
       </c>
@@ -5518,7 +8140,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>79</v>
       </c>
@@ -5538,7 +8160,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>143</v>
       </c>
@@ -5558,7 +8180,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>144</v>
       </c>
@@ -5578,7 +8200,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>145</v>
       </c>
@@ -5598,31 +8220,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
-      <c r="A150" s="22" t="s">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A150" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B150" s="22"/>
-      <c r="C150" s="22"/>
-      <c r="D150" s="22"/>
-      <c r="E150" s="22"/>
-      <c r="F150" s="22"/>
-      <c r="H150" s="22" t="s">
+      <c r="B150" s="24"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="24"/>
+      <c r="H150" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="I150" s="22"/>
-      <c r="J150" s="22"/>
-      <c r="K150" s="22"/>
-      <c r="L150" s="22"/>
-      <c r="M150" s="22"/>
-      <c r="N150" s="22"/>
-    </row>
-    <row r="151" spans="1:14">
+      <c r="I150" s="24"/>
+      <c r="J150" s="24"/>
+      <c r="K150" s="24"/>
+      <c r="L150" s="24"/>
+      <c r="M150" s="24"/>
+      <c r="N150" s="24"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>127</v>
       </c>
@@ -5651,7 +8273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>130</v>
       </c>
@@ -5680,7 +8302,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>131</v>
       </c>
@@ -5709,7 +8331,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>132</v>
       </c>
@@ -5738,7 +8360,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>133</v>
       </c>
@@ -5761,7 +8383,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>134</v>
       </c>
@@ -5784,7 +8406,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>135</v>
       </c>
@@ -5813,7 +8435,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>136</v>
       </c>
@@ -5836,7 +8458,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>137</v>
       </c>
@@ -5859,7 +8481,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>138</v>
       </c>
@@ -5882,7 +8504,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>175</v>
       </c>
@@ -5905,7 +8527,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>176</v>
       </c>
@@ -5928,7 +8550,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>177</v>
       </c>
@@ -5957,7 +8579,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>178</v>
       </c>
@@ -5986,7 +8608,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>179</v>
       </c>
@@ -6015,7 +8637,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>180</v>
       </c>
@@ -6044,7 +8666,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>181</v>
       </c>
@@ -6073,7 +8695,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>182</v>
       </c>
@@ -6102,7 +8724,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>184</v>
       </c>
@@ -6131,7 +8753,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>186</v>
       </c>
@@ -6154,7 +8776,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>187</v>
       </c>
@@ -6177,7 +8799,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>188</v>
       </c>
@@ -6194,7 +8816,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>189</v>
       </c>
@@ -6208,17 +8830,17 @@
         <v>442</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
-      <c r="B175" s="22" t="s">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B175" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C175" s="22"/>
-      <c r="D175" s="22"/>
-      <c r="E175" s="22"/>
-      <c r="F175" s="22"/>
-      <c r="G175" s="22"/>
-    </row>
-    <row r="176" spans="1:12">
+      <c r="C175" s="24"/>
+      <c r="D175" s="24"/>
+      <c r="E175" s="24"/>
+      <c r="F175" s="24"/>
+      <c r="G175" s="24"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B176" s="3" t="s">
         <v>49</v>
       </c>
@@ -6229,7 +8851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="2:9">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B177" s="3" t="s">
         <v>72</v>
       </c>
@@ -6246,7 +8868,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="178" spans="2:9">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B178" s="3" t="s">
         <v>75</v>
       </c>
@@ -6261,7 +8883,7 @@
       </c>
       <c r="G178" s="14"/>
     </row>
-    <row r="179" spans="2:9">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B179" s="3" t="s">
         <v>76</v>
       </c>
@@ -6276,7 +8898,7 @@
       </c>
       <c r="G179" s="14"/>
     </row>
-    <row r="180" spans="2:9">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B180" s="3" t="s">
         <v>77</v>
       </c>
@@ -6289,9 +8911,9 @@
       <c r="F180" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G180" s="18"/>
-    </row>
-    <row r="181" spans="2:9">
+      <c r="G180" s="17"/>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B181" s="3" t="s">
         <v>78</v>
       </c>
@@ -6302,7 +8924,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="182" spans="2:9">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B182" s="3" t="s">
         <v>79</v>
       </c>
@@ -6313,7 +8935,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="183" spans="2:9">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B183" s="3" t="s">
         <v>143</v>
       </c>
@@ -6324,7 +8946,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="184" spans="2:9">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B184" s="3" t="s">
         <v>144</v>
       </c>
@@ -6335,7 +8957,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="185" spans="2:9">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B185" s="3" t="s">
         <v>145</v>
       </c>
@@ -6346,24 +8968,24 @@
         <v>530</v>
       </c>
     </row>
-    <row r="186" spans="2:9">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B186" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="187" spans="2:9">
-      <c r="B187" s="22" t="s">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B187" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="C187" s="22"/>
-      <c r="D187" s="22"/>
-      <c r="E187" s="22"/>
-      <c r="F187" s="22"/>
-      <c r="G187" s="22"/>
-      <c r="H187" s="22"/>
-      <c r="I187" s="22"/>
-    </row>
-    <row r="188" spans="2:9">
+      <c r="C187" s="24"/>
+      <c r="D187" s="24"/>
+      <c r="E187" s="24"/>
+      <c r="F187" s="24"/>
+      <c r="G187" s="24"/>
+      <c r="H187" s="24"/>
+      <c r="I187" s="24"/>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B188" s="3" t="s">
         <v>165</v>
       </c>
@@ -6386,7 +9008,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="189" spans="2:9">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B189" s="3" t="s">
         <v>166</v>
       </c>
@@ -6407,7 +9029,7 @@
       </c>
       <c r="I189" s="14"/>
     </row>
-    <row r="190" spans="2:9">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B190" s="3" t="s">
         <v>167</v>
       </c>
@@ -6428,7 +9050,7 @@
       </c>
       <c r="I190" s="14"/>
     </row>
-    <row r="191" spans="2:9">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B191" s="3" t="s">
         <v>168</v>
       </c>
@@ -6449,7 +9071,7 @@
       </c>
       <c r="I191" s="14"/>
     </row>
-    <row r="192" spans="2:9">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B192" s="3" t="s">
         <v>169</v>
       </c>
@@ -6470,7 +9092,7 @@
       </c>
       <c r="I192" s="14"/>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B193" s="3" t="s">
         <v>170</v>
       </c>
@@ -6491,7 +9113,7 @@
       </c>
       <c r="I193" s="14"/>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B194" s="3" t="s">
         <v>171</v>
       </c>
@@ -6512,7 +9134,7 @@
       </c>
       <c r="I194" s="14"/>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B195" s="3" t="s">
         <v>172</v>
       </c>
@@ -6533,7 +9155,7 @@
       </c>
       <c r="I195" s="14"/>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B196" s="3" t="s">
         <v>173</v>
       </c>
@@ -6554,7 +9176,7 @@
       </c>
       <c r="I196" s="14"/>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B197" s="3" t="s">
         <v>174</v>
       </c>
@@ -6575,7 +9197,7 @@
       </c>
       <c r="I197" s="14"/>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B198" s="3" t="s">
         <v>175</v>
       </c>
@@ -6596,7 +9218,7 @@
       </c>
       <c r="I198" s="14"/>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B199" s="3" t="s">
         <v>176</v>
       </c>
@@ -6617,7 +9239,7 @@
       </c>
       <c r="I199" s="14"/>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B200" s="3" t="s">
         <v>177</v>
       </c>
@@ -6636,9 +9258,9 @@
       <c r="H200" s="16">
         <v>3</v>
       </c>
-      <c r="I200" s="18"/>
-    </row>
-    <row r="201" spans="1:9">
+      <c r="I200" s="17"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B201" s="3" t="s">
         <v>178</v>
       </c>
@@ -6652,18 +9274,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
-      <c r="A203" s="22" t="s">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="B203" s="22"/>
-      <c r="C203" s="22"/>
-      <c r="D203" s="22"/>
-      <c r="E203" s="22"/>
-      <c r="F203" s="22"/>
-      <c r="G203" s="22"/>
-    </row>
-    <row r="204" spans="1:9">
+      <c r="B203" s="24"/>
+      <c r="C203" s="24"/>
+      <c r="D203" s="24"/>
+      <c r="E203" s="24"/>
+      <c r="F203" s="24"/>
+      <c r="G203" s="24"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>194</v>
       </c>
@@ -6680,7 +9302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>1</v>
       </c>
@@ -6697,7 +9319,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>2</v>
       </c>
@@ -6714,7 +9336,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>3</v>
       </c>
@@ -6734,7 +9356,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>4</v>
       </c>
@@ -6750,9 +9372,9 @@
       <c r="F208" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="G208" s="20"/>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="G208" s="19"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>5</v>
       </c>
@@ -6766,7 +9388,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>6</v>
       </c>
@@ -6783,7 +9405,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>7</v>
       </c>
@@ -6797,7 +9419,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>8</v>
       </c>
@@ -6811,7 +9433,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>9</v>
       </c>
@@ -6825,7 +9447,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>10</v>
       </c>
@@ -6839,7 +9461,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>11</v>
       </c>
@@ -6853,7 +9475,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>12</v>
       </c>
@@ -6870,7 +9492,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>13</v>
       </c>
@@ -6887,7 +9509,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>14</v>
       </c>
@@ -6904,7 +9526,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>15</v>
       </c>
@@ -6921,7 +9543,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>16</v>
       </c>
@@ -6938,7 +9560,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>17</v>
       </c>
@@ -6955,7 +9577,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>18</v>
       </c>
@@ -6972,7 +9594,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>19</v>
       </c>
@@ -6986,7 +9608,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>20</v>
       </c>
@@ -7000,7 +9622,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>21</v>
       </c>
@@ -7017,7 +9639,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>22</v>
       </c>
@@ -7034,15 +9656,15 @@
         <v>442</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="22" t="s">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="B229" s="22"/>
-      <c r="C229" s="22"/>
-      <c r="D229" s="22"/>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="B229" s="24"/>
+      <c r="C229" s="24"/>
+      <c r="D229" s="24"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>49</v>
       </c>
@@ -7056,7 +9678,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>72</v>
       </c>
@@ -7067,7 +9689,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>75</v>
       </c>
@@ -7078,7 +9700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>76</v>
       </c>
@@ -7089,7 +9711,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>77</v>
       </c>
@@ -7100,7 +9722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>78</v>
       </c>
@@ -7111,7 +9733,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>79</v>
       </c>
@@ -7122,7 +9744,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>143</v>
       </c>
@@ -7133,7 +9755,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>144</v>
       </c>
@@ -7144,7 +9766,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>145</v>
       </c>
@@ -7155,13 +9777,22 @@
         <v>79</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B187:I187"/>
+    <mergeCell ref="A203:G203"/>
+    <mergeCell ref="A229:D229"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="A150:F150"/>
+    <mergeCell ref="H150:N150"/>
     <mergeCell ref="A115:D115"/>
     <mergeCell ref="F115:L115"/>
     <mergeCell ref="A1:D1"/>
@@ -7175,15 +9806,6 @@
     <mergeCell ref="A88:H88"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="F103:I103"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B187:I187"/>
-    <mergeCell ref="A203:G203"/>
-    <mergeCell ref="A229:D229"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="A150:F150"/>
-    <mergeCell ref="H150:N150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
